--- a/Excel_bootcamp/Visulization Datasets start files/Visualization.xlsx
+++ b/Excel_bootcamp/Visulization Datasets start files/Visualization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel Bootcamp\Moduels\Module 3\Visulization Datasets start files and FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Visulization Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C6B43-CCB5-4513-9449-56AFB81CA6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F48A8-D04D-314F-88AB-372ACE20D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-2196" windowWidth="23256" windowHeight="12576" tabRatio="639" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boot CarShop" sheetId="19" r:id="rId1"/>
@@ -780,6 +780,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,66 +797,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1024,13 +978,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1043,6 +990,59 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1059,14 +1059,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9F32FE0-A7B8-426B-8AC2-C9B98D128093}" name="Table1" displayName="Table1" ref="L2:P12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9F32FE0-A7B8-426B-8AC2-C9B98D128093}" name="Table1" displayName="Table1" ref="L2:P12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="L2:P12" xr:uid="{C9F32FE0-A7B8-426B-8AC2-C9B98D128093}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CF0A8EEF-4D0D-445B-A837-7A5EDB1469DC}" name="Salesperson" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E8D7951A-91CB-440D-9162-0E67F1E2FB1B}" name="Tires sold" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C34CD1CC-0EBF-41BA-B3F6-9435E2257D23}" name="Tire type" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A5EA7402-7E51-41A5-8388-2780F55CFE95}" name="Price per tire" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{7D42E01C-FBF5-489F-B489-6C9B3850057F}" name="Total sales" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{CF0A8EEF-4D0D-445B-A837-7A5EDB1469DC}" name="Salesperson" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E8D7951A-91CB-440D-9162-0E67F1E2FB1B}" name="Tires sold" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C34CD1CC-0EBF-41BA-B3F6-9435E2257D23}" name="Tire type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A5EA7402-7E51-41A5-8388-2780F55CFE95}" name="Price per tire" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7D42E01C-FBF5-489F-B489-6C9B3850057F}" name="Total sales" dataDxfId="0">
       <calculatedColumnFormula>M3*O3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1363,41 +1363,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C7C97-C129-41B2-8B5D-6B32DC438508}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1414,23 +1414,23 @@
         <v>48</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1447,7 +1447,7 @@
         <f>B3*D3</f>
         <v>2064</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="27" t="s">
         <v>42</v>
       </c>
       <c r="M3" s="2">
@@ -1459,12 +1459,12 @@
       <c r="O3" s="2">
         <v>129</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="28">
         <f>M3*O3</f>
         <v>2064</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -1481,7 +1481,7 @@
         <f t="shared" ref="E4:E12" si="0">B4*D4</f>
         <v>408</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="27" t="s">
         <v>43</v>
       </c>
       <c r="M4" s="2">
@@ -1493,12 +1493,12 @@
       <c r="O4" s="2">
         <v>102</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="28">
         <f t="shared" ref="P4:P12" si="1">M4*O4</f>
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1515,7 +1515,7 @@
         <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="27" t="s">
         <v>44</v>
       </c>
       <c r="M5" s="2">
@@ -1527,12 +1527,12 @@
       <c r="O5" s="2">
         <v>111</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="28">
         <f t="shared" si="1"/>
         <v>1332</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -1549,7 +1549,7 @@
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="27" t="s">
         <v>45</v>
       </c>
       <c r="M6" s="2">
@@ -1561,12 +1561,12 @@
       <c r="O6" s="2">
         <v>68</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="28">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -1583,7 +1583,7 @@
         <f t="shared" si="0"/>
         <v>1632</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="2">
@@ -1595,12 +1595,12 @@
       <c r="O7" s="2">
         <v>68</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="28">
         <f t="shared" si="1"/>
         <v>1632</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1617,7 +1617,7 @@
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="27" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="2">
@@ -1629,12 +1629,12 @@
       <c r="O8" s="2">
         <v>70</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="28">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1651,7 +1651,7 @@
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="2">
@@ -1663,12 +1663,12 @@
       <c r="O9" s="2">
         <v>86</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="28">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -1685,7 +1685,7 @@
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="27" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2">
@@ -1697,12 +1697,12 @@
       <c r="O10" s="2">
         <v>64</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="28">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -1719,7 +1719,7 @@
         <f t="shared" si="0"/>
         <v>2440</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="27" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="2">
@@ -1731,12 +1731,12 @@
       <c r="O11" s="2">
         <v>122</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="28">
         <f t="shared" si="1"/>
         <v>2440</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -1753,24 +1753,24 @@
         <f t="shared" si="0"/>
         <v>896</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="33">
         <v>14</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="33">
         <v>64</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="34">
         <f t="shared" si="1"/>
         <v>896</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -1788,13 +1788,13 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
     </row>
   </sheetData>
@@ -1816,13 +1816,13 @@
       <selection activeCell="A5" sqref="A5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1833,21 +1833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07227101-E408-4114-AC7E-391333B58EA7}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1127953592</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1939427564</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1087000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>2085391916</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>636434755</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>1369544272</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1548622601</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>8</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1017673342</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>891742301</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>10</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>711453759</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>634223615</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>12</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1110729382</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>464894842</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>522958274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>557645945</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>16</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>769095055</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>538710564</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>967808702</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>552500000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>20</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>314400000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>936311111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>22</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>634089008</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>494027731</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>24</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>357852418</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>639042321</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>26</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>702897549</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>440200000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>28</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>642863913</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>564429585</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>890614245</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>653874642</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>32</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>405494813</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>806400000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>34</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>743834172</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>269912687</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>36</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>557104283</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>418000000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>38</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>643049687</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>434407829</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>40</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>864643776</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>742000747</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>42</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>479300000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>949242298</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>44</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>555565482</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>468728300</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>46</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>742368141</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>421173072</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>48</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>251530705</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>516918170</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>50</v>
       </c>
@@ -2880,21 +2880,21 @@
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>49490</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>146260</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>149940</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>33330</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>29870</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>61800</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>86700</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>97920</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>25750</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>112110</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>176750</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>123600</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>167890</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>58140</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>84460</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>25</v>
       </c>
@@ -3626,8 +3626,8 @@
         <v>115140</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3641,11 +3641,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -3661,48 +3661,48 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3717,7 +3717,7 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel_bootcamp/Visulization Datasets start files/Visualization.xlsx
+++ b/Excel_bootcamp/Visulization Datasets start files/Visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/Excel/Excel_bootcamp/Visulization Datasets start files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F48A8-D04D-314F-88AB-372ACE20D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208CD35A-81E6-2649-9CE5-CF42884B43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" tabRatio="639" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
